--- a/data/trans_orig/Q03B_LAB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Habitat-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5962553274073819</v>
+        <v>0.5946055988252746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.363667907228516</v>
+        <v>1.372055256252555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.551732862992767</v>
+        <v>1.56006404949905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.125115149519996</v>
+        <v>3.109444833194841</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.716906015080702</v>
+        <v>3.713613866256616</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.573896981818979</v>
+        <v>3.577327491371106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.877306207043515</v>
+        <v>1.873260469129991</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.573819130711725</v>
+        <v>2.578316545616272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.609600400500502</v>
+        <v>2.608741659578804</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7925299106086685</v>
+        <v>0.7948094023935307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.624188246253342</v>
+        <v>1.639481425215511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.804007480645394</v>
+        <v>1.818650808109438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.460101682304683</v>
+        <v>3.475005121932837</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.079648767669311</v>
+        <v>4.07728971708249</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.876866320476709</v>
+        <v>3.902794308713192</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.118596636761385</v>
+        <v>2.12952794359488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.833412202415341</v>
+        <v>2.82679650429746</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.85492041886835</v>
+        <v>2.834928875174191</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9811357236625317</v>
+        <v>0.9778466119497228</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.288256752653041</v>
+        <v>1.286503799145949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.625865711873565</v>
+        <v>1.62982158015328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.478665181208795</v>
+        <v>3.475185648416721</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.633283607006016</v>
+        <v>3.625256422611885</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.442929639708549</v>
+        <v>3.440721360618401</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.234957664946989</v>
+        <v>2.242375507979696</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.484820981962732</v>
+        <v>2.494778884165749</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.574283971381611</v>
+        <v>2.57899188929056</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.199585590108206</v>
+        <v>1.186725695195205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.487630918560338</v>
+        <v>1.489421356948667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.836668798873962</v>
+        <v>1.831253866112839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.799965424230303</v>
+        <v>3.804852472005019</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.933489199923372</v>
+        <v>3.939745527841088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.704740509766649</v>
+        <v>3.704233566053754</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.479557419609019</v>
+        <v>2.467952013264367</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.695821478676764</v>
+        <v>2.695914438871389</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.761524181612856</v>
+        <v>2.767763286829214</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.429519137864761</v>
+        <v>1.440665577381855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.275393707211563</v>
+        <v>1.262188702124841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.34961863434795</v>
+        <v>1.338519358656634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.886470079462235</v>
+        <v>3.905237251452987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.333951075434526</v>
+        <v>3.344888375899352</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.324507114310483</v>
+        <v>3.331183284547544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.719893595400833</v>
+        <v>2.718147675357793</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.3441774145061</v>
+        <v>2.349588850724516</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.41862080524802</v>
+        <v>2.413123684514605</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.77539618334202</v>
+        <v>1.783570850830669</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.507968511324207</v>
+        <v>1.497396456159922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.554039792827738</v>
+        <v>1.558458822901052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.281298947616365</v>
+        <v>4.292934952699944</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.652284309896261</v>
+        <v>3.658633798522037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.638209320164536</v>
+        <v>3.641424313957444</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.997787046636911</v>
+        <v>3.022816830322871</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.57399837470098</v>
+        <v>2.570843936350148</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.641887783617853</v>
+        <v>2.632443211507224</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.329218558734446</v>
+        <v>1.328041030670925</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.424522793642345</v>
+        <v>1.426333893553248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.748417137221714</v>
+        <v>1.749846705958013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.132004866490291</v>
+        <v>3.149068598155606</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.088550491106416</v>
+        <v>3.086172602179351</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.130970797356961</v>
+        <v>3.137477825554618</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.321434805234522</v>
+        <v>2.315440185211215</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.334702244324296</v>
+        <v>2.332157079372287</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.50494592040182</v>
+        <v>2.509667729257825</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.587491932502687</v>
+        <v>1.60359817793033</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.630925738783488</v>
+        <v>1.63761639393396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.935466523514174</v>
+        <v>1.936115683924913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.460645669448517</v>
+        <v>3.478116408392742</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.337467146481697</v>
+        <v>3.352862868592895</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.389381949127902</v>
+        <v>3.379343689641557</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.541590749634369</v>
+        <v>2.552073479543711</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.510103405065888</v>
+        <v>2.516557731573416</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.677508790229858</v>
+        <v>2.68510282660584</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.145404483415161</v>
+        <v>1.153428295596955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.389394342612992</v>
+        <v>1.386569722126838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.63474523908511</v>
+        <v>1.6362844884082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.474423732102193</v>
+        <v>3.471078312616116</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.486383428978086</v>
+        <v>3.495000951832664</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.423576153990554</v>
+        <v>3.41812592478227</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.34767509448155</v>
+        <v>2.34450547994658</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.472920167314253</v>
+        <v>2.479217628407039</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.574673789206053</v>
+        <v>2.573436702887179</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.273161238974792</v>
+        <v>1.282837732001741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.501974692271378</v>
+        <v>1.499674930946184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.738136889652747</v>
+        <v>1.744077322549727</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.654077673223283</v>
+        <v>3.637341718750594</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.642527230377398</v>
+        <v>3.649517707046703</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.564638205125299</v>
+        <v>3.559178749879329</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.468764757836584</v>
+        <v>2.47103897222979</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.583084670326666</v>
+        <v>2.591248360608509</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.675633787433281</v>
+        <v>2.672687914897995</v>
       </c>
     </row>
     <row r="19">
